--- a/biology/Médecine/Jean_Starobinski/Jean_Starobinski.xlsx
+++ b/biology/Médecine/Jean_Starobinski/Jean_Starobinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Starobinski, né le 17 novembre 1920 à Genève et mort le 4 mars 2019 à Morges (canton de Vaud, Suisse), est un historien des idées, théoricien de la littérature et médecin psychiatre suisse.
 Ayant suivi des études de lettres classiques et de psychiatrie à l'université de Genève, il fut titulaire à la fois d'un doctorat ès lettres (avec une thèse sur Jean-Jacques Rousseau) et d'un doctorat en médecine obtenu à l'université de Lausanne, avec une thèse portant sur l'histoire du traitement de la mélancolie.
@@ -512,17 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Starobinski est le fils d'Aron Starobinski et de Szajndla Frydman, tous deux d'origine juive polonaise[2]. Il ne fut naturalisé suisse qu'en 1948[2].
-En 1957, paraît sa thèse de lettres « La Transparence et l’Obstacle » consacrée à Jean-Jacques Rousseau, avant qu'il ne s'intéresse aux autres auteurs des Lumières, dont plus particulièrement Diderot[3].
-Il a enseigné la littérature française à l’université Johns-Hopkins, à l'université de Bâle, ainsi qu’à Genève, où il a aussi assuré des cours d’histoire des idées et d’histoire de la médecine. Ses livres, traduits en une douzaine de langues, ont enrichi les vues sur plusieurs grandes œuvres[Lesquelles ?]. Il a également consacré de nombreux travaux[Lesquels ?] à la création poétique contemporaine, ainsi qu’aux problèmes de l’interprétation et de l'herméneutique. Ses essais sur l’art et la littérature du XVIIIe siècle (en particulier Rousseau, Diderot et Voltaire) sont devenus des classiques du genre et ont renouvelé la compréhension de ces auteurs[4]. Son expérience de médecin et de psychiatre l'a amené à étudier l'histoire de la mélancolie (notamment dans Trois Fureurs, 1974).
-Il est le premier, en 1964, à publier les recherches de Ferdinand de Saussure sur les anagrammes. Il participait également au comité de rédaction de la Nouvelle Revue de psychanalyse, aux côtés de Jean-Bertrand Pontalis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Starobinski est le fils d'Aron Starobinski et de Szajndla Frydman, tous deux d'origine juive polonaise. Il ne fut naturalisé suisse qu'en 1948.
+En 1957, paraît sa thèse de lettres « La Transparence et l’Obstacle » consacrée à Jean-Jacques Rousseau, avant qu'il ne s'intéresse aux autres auteurs des Lumières, dont plus particulièrement Diderot.
+Il a enseigné la littérature française à l’université Johns-Hopkins, à l'université de Bâle, ainsi qu’à Genève, où il a aussi assuré des cours d’histoire des idées et d’histoire de la médecine. Ses livres, traduits en une douzaine de langues, ont enrichi les vues sur plusieurs grandes œuvres[Lesquelles ?]. Il a également consacré de nombreux travaux[Lesquels ?] à la création poétique contemporaine, ainsi qu’aux problèmes de l’interprétation et de l'herméneutique. Ses essais sur l’art et la littérature du XVIIIe siècle (en particulier Rousseau, Diderot et Voltaire) sont devenus des classiques du genre et ont renouvelé la compréhension de ces auteurs. Son expérience de médecin et de psychiatre l'a amené à étudier l'histoire de la mélancolie (notamment dans Trois Fureurs, 1974).
+Il est le premier, en 1964, à publier les recherches de Ferdinand de Saussure sur les anagrammes. Il participait également au comité de rédaction de la Nouvelle Revue de psychanalyse, aux côtés de Jean-Bertrand Pontalis.
 Jean Starobinski fut membre de l’Académie des sciences morales et politiques (Institut de France), ainsi que de plusieurs académies françaises, européennes et américaines. Il fut docteur honoris causa de nombreuses universités en Europe et en Amérique.
-En 2010, il confie sa bibliothèque personnelle, constituée de plus de 40 000 ouvrages, aux archives littéraires de la Bibliothèque nationale suisse[6].
-Il meurt le 4 mars 2019[3] à Morges[2].
-Vie privée
-En août 1954, Jean Starobinski se marie à une médecin ophtalmologiste, Jacqueline Sirman (morte en 2022), avec qui il a trois fils[2].
+En 2010, il confie sa bibliothèque personnelle, constituée de plus de 40 000 ouvrages, aux archives littéraires de la Bibliothèque nationale suisse.
+Il meurt le 4 mars 2019 à Morges.
 </t>
         </is>
       </c>
@@ -548,14 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Théorie littéraire</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jean Starobinski décrit sa méthodologie critique notamment dans un ouvrage intitulé La Relation critique. Il y explique vouloir s'attacher à coordonner à la fois les méthodes de la stylistique, de l'histoire des idées et de la psychanalyse. C'est ce qu'il nomme une « critique de la relation ». Cette approche éclectique est parfois qualifiée de « thématique » et se rattache comme les œuvres de Georges Poulet, Marcel Raymond ou Jean Rousset à l’École dite de Genève.
-La singularité de l'approche de Starobinski réside dans sa volonté assumée d'investir une œuvre pour lui « rendre sens » en évitant le double écueil du « mimétisme » total et celui de la distance trop grande susceptible de diluer l’œuvre.
-La pertinence et la pérennité de son œuvre et de son regard critique sur la médecine se révèlent lors de la crise sanitaire de la pandémie de Covid-19[7].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 1954, Jean Starobinski se marie à une médecin ophtalmologiste, Jacqueline Sirman (morte en 2022), avec qui il a trois fils.
 </t>
         </is>
       </c>
@@ -581,10 +597,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Théorie littéraire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Starobinski décrit sa méthodologie critique notamment dans un ouvrage intitulé La Relation critique. Il y explique vouloir s'attacher à coordonner à la fois les méthodes de la stylistique, de l'histoire des idées et de la psychanalyse. C'est ce qu'il nomme une « critique de la relation ». Cette approche éclectique est parfois qualifiée de « thématique » et se rattache comme les œuvres de Georges Poulet, Marcel Raymond ou Jean Rousset à l’École dite de Genève.
+La singularité de l'approche de Starobinski réside dans sa volonté assumée d'investir une œuvre pour lui « rendre sens » en évitant le double écueil du « mimétisme » total et celui de la distance trop grande susceptible de diluer l’œuvre.
+La pertinence et la pérennité de son œuvre et de son regard critique sur la médecine se révèlent lors de la crise sanitaire de la pandémie de Covid-19.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1946-1949 : assistant de littérature française à l’université de Genève
@@ -599,7 +652,43 @@
 1966-1985 : chargé de l’enseignement de l’histoire de la médecine en faculté de médecine
 1987-1988 : professeur invité au Collège de France
 1992-1993 : suppléant dans la chaire de littérature française de l’École polytechnique fédérale de Zurich
-Sociétés et associations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sociétés et associations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1967-1993 : Société Jean-Jacques Rousseau à Genève - Président
 1965-1996 : les Rencontres internationales de Genève - Président
 1975 : Modern Humanities Research Association (en) - Président
@@ -608,7 +697,43 @@
 1983 : Conseil supérieur de la langue française à Paris - membre
 1986 : Comité des prix de la Fondation Balzan, Milan-Zurich - membre
 1994 : European Association for the History of Psychiatry (EAHP) - Président d'honneur
-Membre ou associé d'académies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Membre ou associé d'académies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1969 : Académie des Lyncéens
 1974 : British Academy
 1974 : Académie américaine des arts et des sciences
@@ -619,7 +744,43 @@
 1987 : Académie des sciences morales et politiques, de l'Institut de France à Paris
 1990 : Académie internationale d'histoire de la médecine, Romance Languages Institute, Université de Londres
 1993 : Society of Scholars de l'université Johns-Hopkins de Baltimore
-Doctorats honoris causa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Doctorats honoris causa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Université de Lille (1973)
 Université de Bruxelles (1979)
 Université de Lausanne (1979)
@@ -627,7 +788,7 @@
 Université Columbia, New York (1987)
 Université de Montréal (1988)
 Université de Neuchâtel (1989)
-Université de Nantes (1992)[8]
+Université de Nantes (1992)
 Université Johns-Hopkins (1993)
 Université de Turin (1994)
 Université d'Oslo (1994)
@@ -639,34 +800,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean_Starobinski</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ouvrages
-(choix de textes et présentation) Stendhal, coll. « Le Cri de la France », série 1, no 4, Fribourg, LUF, 1943
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(choix de textes et présentation) Stendhal, coll. « Le Cri de la France », série 1, no 4, Fribourg, LUF, 1943
 (traduction et présentation) Franz Kafka : La Colonie pénitentiaire, nouvelles suivies d'un Journal intime, Fribourg, LUF, 1945
 (avec Paul Alexandre et Marc Eigeldinger) Pierre Jean Jouve : poète et romancier, Neuchâtel, À la Baconnière, 1946
 Montesquieu, coll. « Microcosme » « Écrivains de toujours », Paris, Le Seuil, 1953 ; édition corrigée et augmentée, 1994
@@ -702,38 +868,74 @@
 Accuser et séduire, Paris, Gallimard, 2012  (ISBN 2070137759)
 Diderot, un diable de ramage, Paris, Gallimard, 2012
 La Beauté du monde – La littérature et les arts, édition établie sous la direction de Martin Rueff, Paris, Gallimard, 2016.
-Le Corps et ses raisons, 2020, éd. Le Seuil, coll.Librairie du XXIe siècle,  (ISBN 2021238407).
-Articles
-Avec Pascal Griener et Stéphanie Cudré-Mauroux, « Jean Starobinski et les arts : une relation critique », Perspective, 2 | 2006, 158-166 [mis en ligne le 31 mars 2018, consulté le 07 février 2022. URL : http://journals.openedition.org/perspective/344 ; DOI : https://doi.org/10.4000/perspective.344 ].
+Le Corps et ses raisons, 2020, éd. Le Seuil, coll.Librairie du XXIe siècle,  (ISBN 2021238407).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Avec Pascal Griener et Stéphanie Cudré-Mauroux, « Jean Starobinski et les arts : une relation critique », Perspective, 2 | 2006, 158-166 [mis en ligne le 31 mars 2018, consulté le 07 février 2022. URL : http://journals.openedition.org/perspective/344 ; DOI : https://doi.org/10.4000/perspective.344 ].
 Jean Starobinski, Médecine et Anti-médecine, Cahiers de la Faculté de Médecine, no 13, Université de Genève, 1986.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jean_Starobinski</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Starobinski</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prix de la Tribune de Paris (1954)
@@ -744,7 +946,7 @@
 Grand prix de littérature française hors de France (Académie royale de Belgique 1972)
 Prix Pierre de Régnier de l’Académie française (1973)
 Prix du Rayonnement de la langue française de l’Académie française (1979)
-Prix quadriennal de la ville de Genève (1979)/[9]
+Prix quadriennal de la ville de Genève (1979)/
 Prix européen de l'essai Charles Veillon, Lausanne (1983)
 Prix Balzan, Berne-Rome (1984)
 Prix de la Fondation Pierre Ier de Monaco (1988)
@@ -756,7 +958,7 @@
 Premio Nuova Antologia, Lugano (1998)
 Grand Prix de la Francophonie, Paris (1998)
 Karl Jaspers-Preis, Heidelberg (1999)
-Médaille d'or du Círculo de Bellas Artes (2009, Espagne)[10]
+Médaille d'or du Círculo de Bellas Artes (2009, Espagne)
 Prix de la Fondation pour Genève (2010)
 </t>
         </is>
